--- a/用例数据/深权/特殊资金自动上账/测试结果.xlsx
+++ b/用例数据/深权/特殊资金自动上账/测试结果.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F5AF4-5B49-4753-9D2E-22F62926CD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="futuretradinglog" sheetId="1" r:id="rId1"/>
@@ -802,12 +803,6 @@
     <t>TJ1AvP9O</t>
   </si>
   <si>
-    <t>1000000000.000</t>
-  </si>
-  <si>
-    <t>1003367659.070</t>
-  </si>
-  <si>
     <t>0.0000000000000</t>
   </si>
   <si>
@@ -820,9 +815,6 @@
     <t>0.0076000000</t>
   </si>
   <si>
-    <t>82800000000.000</t>
-  </si>
-  <si>
     <t>0.050000</t>
   </si>
   <si>
@@ -848,12 +840,22 @@
   </si>
   <si>
     <t>1003938661.890</t>
+  </si>
+  <si>
+    <t>571002.820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4385659.970</t>
+  </si>
+  <si>
+    <t>79.92</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1172,11 +1174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CY35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1497,10 +1499,10 @@
     </row>
     <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>106</v>
@@ -1545,16 +1547,16 @@
         <v>116</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>115</v>
@@ -1748,7 +1750,7 @@
         <v>116</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>115</v>
@@ -1950,11 +1952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:ES19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2434,13 +2436,13 @@
         <v>118</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>118</v>
@@ -2470,22 +2472,22 @@
         <v>114</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>121</v>
@@ -2497,7 +2499,7 @@
         <v>115</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>103</v>
@@ -2506,7 +2508,7 @@
         <v>114</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>118</v>
@@ -2515,7 +2517,7 @@
         <v>121</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>115</v>
@@ -2527,7 +2529,7 @@
         <v>118</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>118</v>
@@ -2545,10 +2547,10 @@
         <v>115</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>121</v>
@@ -2653,7 +2655,7 @@
         <v>120</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="CN2" s="1" t="s">
         <v>118</v>
@@ -2668,7 +2670,7 @@
         <v>122</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="CS2" s="1" t="s">
         <v>118</v>
@@ -2677,10 +2679,10 @@
         <v>118</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="CW2" s="1" t="s">
         <v>115</v>
@@ -2707,7 +2709,7 @@
         <v>120</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>120</v>
@@ -2719,7 +2721,7 @@
         <v>120</v>
       </c>
       <c r="DI2" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="DJ2" s="1" t="s">
         <v>120</v>

--- a/用例数据/深权/特殊资金自动上账/测试结果.xlsx
+++ b/用例数据/深权/特殊资金自动上账/测试结果.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F5AF4-5B49-4753-9D2E-22F62926CD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E6C742-4467-4212-A6B4-B14764A0BD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="futuretradinglog" sheetId="1" r:id="rId1"/>
@@ -680,9 +680,6 @@
     <t>EXCHANGEMARGINUSED</t>
   </si>
   <si>
-    <t>EXCHANGECOMMISION</t>
-  </si>
-  <si>
     <t>EXCHANGECOMMISIONFROZEN</t>
   </si>
   <si>
@@ -849,7 +846,12 @@
     <t>4385659.970</t>
   </si>
   <si>
-    <t>79.92</t>
+    <t>EXCHANGECOMMISION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1499,10 +1501,10 @@
     </row>
     <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>106</v>
@@ -1547,16 +1549,16 @@
         <v>116</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>115</v>
@@ -1750,7 +1752,7 @@
         <v>116</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>115</v>
@@ -1955,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:ES19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="CS1" workbookViewId="0">
+      <selection activeCell="DH8" sqref="DH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2287,127 +2289,127 @@
         <v>218</v>
       </c>
       <c r="DE1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="DF1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="ER1" s="1" t="s">
         <v>102</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2418,7 +2420,7 @@
         <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>110</v>
@@ -2436,13 +2438,13 @@
         <v>118</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>118</v>
@@ -2472,22 +2474,22 @@
         <v>114</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>121</v>
@@ -2499,7 +2501,7 @@
         <v>115</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>103</v>
@@ -2508,7 +2510,7 @@
         <v>114</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>118</v>
@@ -2517,19 +2519,19 @@
         <v>121</v>
       </c>
       <c r="AK2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>118</v>
@@ -2547,10 +2549,10 @@
         <v>115</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>121</v>
@@ -2655,7 +2657,7 @@
         <v>120</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="CN2" s="1" t="s">
         <v>118</v>
@@ -2670,7 +2672,7 @@
         <v>122</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="CS2" s="1" t="s">
         <v>118</v>
@@ -2679,10 +2681,10 @@
         <v>118</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CW2" s="1" t="s">
         <v>115</v>
@@ -2721,7 +2723,7 @@
         <v>120</v>
       </c>
       <c r="DI2" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="DJ2" s="1" t="s">
         <v>120</v>
